--- a/testData/TC_StorageGridConfig.xlsx
+++ b/testData/TC_StorageGridConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunilr2\eclipse-workspace\UCPQ_Automation\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2839EABA-3128-4160-A40B-FB263AC7A9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF577E5-1E3C-4C2A-A7CD-76FBB03337D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="21600" windowHeight="13749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>Username</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Primary Contact</t>
   </si>
   <si>
-    <t>Opprotunity Name</t>
-  </si>
-  <si>
     <t>Amit Jain</t>
   </si>
   <si>
@@ -151,6 +148,12 @@
   </si>
   <si>
     <t>Qty Storage Nodes</t>
+  </si>
+  <si>
+    <t>Test Second Automation</t>
+  </si>
+  <si>
+    <t>Opportunity Name</t>
   </si>
 </sst>
 </file>
@@ -246,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -260,6 +263,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -269,18 +275,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -563,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:R1"/>
@@ -574,7 +576,7 @@
     <col min="1" max="1" width="26.07421875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.3828125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.3046875" customWidth="1"/>
-    <col min="4" max="4" width="16.3828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.3046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.07421875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.07421875" bestFit="1" customWidth="1"/>
@@ -592,64 +594,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
       <c r="S1" s="5"/>
-      <c r="T1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
+      <c r="T1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
+      <c r="B2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="8"/>
+      <c r="S2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -662,61 +664,61 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="K3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="Q3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="S3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="V3" s="13" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
@@ -730,25 +732,25 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -757,21 +759,77 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R4" s="4">
         <v>1000</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="14">
+        <v>38</v>
+      </c>
+      <c r="V4" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" s="4">
+        <v>1000</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="V5" s="7">
         <v>6</v>
       </c>
     </row>
@@ -785,6 +843,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{147F5B5B-A653-4F7A-9371-88FE8BC0D8D7}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{7EF10CD1-CDB9-4436-B4A4-9886E081532C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testData/TC_StorageGridConfig.xlsx
+++ b/testData/TC_StorageGridConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunilr2\eclipse-workspace\UCPQ_Automation\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF577E5-1E3C-4C2A-A7CD-76FBB03337D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7852BFA0-C251-411D-87C0-AF8FDDC570F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="21600" windowHeight="13749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Username</t>
   </si>
@@ -135,15 +135,9 @@
     <t>Storage Grid</t>
   </si>
   <si>
-    <t>SG5860</t>
-  </si>
-  <si>
     <t>Model Storage Nodes</t>
   </si>
   <si>
-    <t>8TB HDDs Non-FDE</t>
-  </si>
-  <si>
     <t>Drive Type Storage Nodes</t>
   </si>
   <si>
@@ -154,6 +148,15 @@
   </si>
   <si>
     <t>Opportunity Name</t>
+  </si>
+  <si>
+    <t>Hyperscaler</t>
+  </si>
+  <si>
+    <t>SG5812</t>
+  </si>
+  <si>
+    <t>4TB HDDs Non-FDE</t>
   </si>
 </sst>
 </file>
@@ -565,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R1"/>
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -582,18 +585,19 @@
     <col min="7" max="7" width="15.07421875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.61328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.53515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.3828125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.3828125" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="17.3828125" customWidth="1"/>
-    <col min="17" max="17" width="22.15234375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.3828125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.53515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.69140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.23046875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.3046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.4609375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.3828125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.3828125" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="17.3828125" customWidth="1"/>
+    <col min="18" max="18" width="22.15234375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.53515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.23046875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -614,14 +618,15 @@
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="10" t="s">
+      <c r="S1" s="9"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="11"/>
       <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -642,18 +647,19 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="8"/>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="8"/>
+      <c r="T2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="13"/>
       <c r="U2" s="13"/>
       <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,7 +670,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -685,43 +691,46 @@
         <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>40</v>
+      <c r="W3" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -758,26 +767,27 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="4">
+      <c r="S4" s="4">
         <v>1000</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="T4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="V4" s="7">
+      <c r="U4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -788,7 +798,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
@@ -814,32 +824,33 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="4">
+      <c r="S5" s="4">
         <v>1000</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="T5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="T5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="V5" s="7">
+      <c r="U5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W5" s="7">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="T2:W2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{147F5B5B-A653-4F7A-9371-88FE8BC0D8D7}"/>

--- a/testData/TC_StorageGridConfig.xlsx
+++ b/testData/TC_StorageGridConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunilr2\eclipse-workspace\UCPQ_Automation\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7852BFA0-C251-411D-87C0-AF8FDDC570F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4A4469-B691-444D-BF2C-37801D343223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="21600" windowHeight="13749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>Username</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>4TB HDDs Non-FDE</t>
+  </si>
+  <si>
+    <t>Expected Label</t>
+  </si>
+  <si>
+    <t>StorageGRID Appliance</t>
   </si>
 </sst>
 </file>
@@ -195,7 +201,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,8 +220,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -236,15 +260,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -269,23 +284,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -568,7 +577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:S1"/>
@@ -595,142 +604,148 @@
     <col min="21" max="21" width="18.69140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="22.23046875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.3046875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="8"/>
-      <c r="T2" s="12" t="s">
+      <c r="S2" s="11"/>
+      <c r="T2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" s="10" t="s">
         <v>38</v>
       </c>
+      <c r="X3" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -786,8 +801,11 @@
       <c r="W4" s="7">
         <v>6</v>
       </c>
+      <c r="X4" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -843,14 +861,17 @@
       <c r="W5" s="7">
         <v>6</v>
       </c>
+      <c r="X5" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="T2:X2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{147F5B5B-A653-4F7A-9371-88FE8BC0D8D7}"/>

--- a/testData/TC_StorageGridConfig.xlsx
+++ b/testData/TC_StorageGridConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunilr2\eclipse-workspace\UCPQ_Automation\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4A4469-B691-444D-BF2C-37801D343223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDB87F2-2B87-4D0C-8BA0-AABC39B2E5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="21600" windowHeight="13749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>Username</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Qty Storage Nodes</t>
   </si>
   <si>
-    <t>Test Second Automation</t>
-  </si>
-  <si>
     <t>Opportunity Name</t>
   </si>
   <si>
@@ -163,6 +160,24 @@
   </si>
   <si>
     <t>StorageGRID Appliance</t>
+  </si>
+  <si>
+    <t>Test-Automation-Indirect</t>
+  </si>
+  <si>
+    <t>Indirect</t>
+  </si>
+  <si>
+    <t>Reseller through NetApp</t>
+  </si>
+  <si>
+    <t>Own Use</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Bhuvan Testing</t>
   </si>
 </sst>
 </file>
@@ -682,7 +697,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>8</v>
@@ -703,7 +718,7 @@
         <v>18</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>25</v>
@@ -742,7 +757,7 @@
         <v>38</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.4">
@@ -793,16 +808,16 @@
         <v>34</v>
       </c>
       <c r="U4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="V4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="V4" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="W4" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.4">
@@ -816,7 +831,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
@@ -834,15 +849,27 @@
         <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="R5" s="1" t="s">
         <v>23</v>
       </c>
@@ -853,16 +880,16 @@
         <v>34</v>
       </c>
       <c r="U5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="V5" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="W5" s="7">
         <v>6</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -875,7 +902,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{147F5B5B-A653-4F7A-9371-88FE8BC0D8D7}"/>
-    <hyperlink ref="A5" r:id="rId2" xr:uid="{7EF10CD1-CDB9-4436-B4A4-9886E081532C}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{21442B46-9264-4E3A-AB7F-FEC50167BF58}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
